--- a/data/failures/entities_start_end_dates.xlsx
+++ b/data/failures/entities_start_end_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf72e6496f26e8d/UWA PhD/bankFailure/data/failures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="11_BC803668C347457380E3C66D8CB5819721C9985F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5A6C5C7-10D2-42D6-82B4-E8C08423F2EA}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="11_BC803668C347457380E3C66D8CB5819721C9985F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6F95408E-FE36-4EA4-84C2-A4AB5822B455}"/>
   <bookViews>
-    <workbookView xWindow="-12396" yWindow="-108" windowWidth="12504" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-11472" yWindow="1464" windowWidth="5328" windowHeight="3864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entsDates" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1653,7 +1653,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4373,7 +4373,7 @@
   <autoFilter ref="A1:M186" xr:uid="{F766B230-6C83-4273-BA2E-06188A6384CC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="49"/>
+        <filter val="312"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M186">

--- a/data/failures/entities_start_end_dates.xlsx
+++ b/data/failures/entities_start_end_dates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf72e6496f26e8d/UWA PhD/bankFailure/data/failures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="11_BC803668C347457380E3C66D8CB5819721C9985F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6F95408E-FE36-4EA4-84C2-A4AB5822B455}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="11_BC803668C347457380E3C66D8CB5819721C9985F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A84A328-F372-41D8-A6E5-595FA3D1A967}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-11472" yWindow="1464" windowWidth="5328" windowHeight="3864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entsDates" sheetId="1" r:id="rId1"/>
-    <sheet name="code" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="code" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entsDates!$A$1:$M$186</definedName>
@@ -38,8 +39,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3AC5D5FA-6256-4BB4-BB45-3745274A3EBA}</author>
+    <author>emi</author>
     <author>tc={B8553458-24EB-4F46-AFDB-7DD7F84F49B4}</author>
-    <author>emi</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3AC5D5FA-6256-4BB4-BB45-3745274A3EBA}">
@@ -50,15 +51,7 @@
     This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{B8553458-24EB-4F46-AFDB-7DD7F84F49B4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    fOR EXAMPLE, a financial company becomes a bank</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{11C43F25-94D5-46C7-8CF6-A0491A69A183}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DC00A26D-135E-4985-B64C-FF3091B0E578}">
       <text>
         <r>
           <rPr>
@@ -66,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>emi:</t>
         </r>
@@ -75,10 +68,349 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Include M&amp;A and volutary exit but not transformations</t>
+This is the date that any of the event for disappearing an entitiy occur</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{168B1AF7-FF2A-47E3-B5A8-A7F463051780}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was this entity merged with another entitiy of similar size and a new entity emerged as a result?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{A7B2B9FB-BCFE-464E-8327-F5A6F4A8BAFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was this disappearing entity adquired by a bigger entitiy and the aquiring entitiy preserved its name and status?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{6F58F602-4E18-4A39-90C4-5383259D8F28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Any of ET_MERGE or ET_ADQUIRED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{44456A0B-B678-432B-B3CB-454447B6D959}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some assets were sold to another firm. A weaker form of ET_ADQUIRED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{B8553458-24EB-4F46-AFDB-7DD7F84F49B4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    fOR EXAMPLE, a financial company becomes a bank</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{F7BE579E-7247-42A8-8F0E-4129867C2334}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The entitiy ask the Central Bank to cancel its license. Article a) of Financial Entities Act</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{9ADCFC6A-9595-4CAA-9320-489F8C04E4F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Article d) in the Financial Entities Act</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}</author>
+    <author>emi</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{BFE78514-93AF-4519-BE38-23264E1D83BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the date that any of the event for disappearing an entitiy occur</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{54607397-ACC6-4E7D-AB2C-D1E28485EEA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was this entity merged with another entitiy of similar size and a new entity emerged as a result?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{3E70829C-CE17-457C-84CA-2344183B5B95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was this disappearing entity adquired by a bigger entitiy and the aquiring entitiy preserved its name and status?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{AC1D7F39-CD84-4555-B3CB-A8E7AFA38653}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Any of ET_MERGE or ET_ADQUIRED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{97A6DFA9-2B28-42A3-B50E-B700C9DBDD12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some assets were sold to another firm. A weaker form of ET_ADQUIRED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{8EFEA173-4C4D-49D7-8006-CA4469F9CF2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The entitiy ask the Central Bank to cancel its license. Article a) of Financial Entities Act</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{7C55571B-5245-4DB8-888C-6F634C8AF4A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Article d) in the Financial Entities Act</t>
         </r>
       </text>
     </comment>
@@ -87,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
   <si>
     <t>IDent</t>
   </si>
@@ -668,9 +1000,6 @@
     <t>entsDates</t>
   </si>
   <si>
-    <t>M_AND_A</t>
-  </si>
-  <si>
     <t>"transfiri'o activos y pasivos" It may hide a failure</t>
   </si>
   <si>
@@ -680,9 +1009,6 @@
     <t xml:space="preserve">Transfirió ALGUNOS activos y pasivos a Banco Río de la Plata S.A. y se revocó su autorización para funcionar.    </t>
   </si>
   <si>
-    <t>PARTIAL_SALE</t>
-  </si>
-  <si>
     <t>COMMENTS</t>
   </si>
   <si>
@@ -704,9 +1030,6 @@
     <t>ORDER_N</t>
   </si>
   <si>
-    <t>EXIT_DATE_XLS</t>
-  </si>
-  <si>
     <t>FIRST_DATE</t>
   </si>
   <si>
@@ -725,19 +1048,49 @@
     <t>Privatizado. Los privatizados son a solicitud del banco</t>
   </si>
   <si>
-    <t>Merge</t>
-  </si>
-  <si>
-    <t>Adquisition</t>
-  </si>
-  <si>
-    <t>TRANSFORMATION</t>
-  </si>
-  <si>
-    <t>VOLUNTARY_EXIT</t>
-  </si>
-  <si>
-    <t>FAIL_DATE_A</t>
+    <t>EXIT_DATE</t>
+  </si>
+  <si>
+    <t>ET_MERGE</t>
+  </si>
+  <si>
+    <t>ET_ADQUIRED</t>
+  </si>
+  <si>
+    <t>ET_OTHER</t>
+  </si>
+  <si>
+    <t>ET_PARTIAL_SALE</t>
+  </si>
+  <si>
+    <t>ET_TRANSFORMATION</t>
+  </si>
+  <si>
+    <t>ET_VOLUNTARY</t>
+  </si>
+  <si>
+    <t>Article d) in the Financial Entities Act</t>
+  </si>
+  <si>
+    <t>Exit Type Adquired: Was this disappearing entity adquired by a bigger entitiy and the aquiring entitiy preserved its name and status?</t>
+  </si>
+  <si>
+    <t>Exit Type Merge: Was this entity merged with another entitiy of similar size and a new entity emerged as a result?</t>
+  </si>
+  <si>
+    <t>Exit Type Merge or Adquisition: Any of ET_MERGE or ET_ADQUIRED</t>
+  </si>
+  <si>
+    <t>Exity Type Transfomration of institutional type: Change from bank to financial company, or state-owned bank to private bank</t>
+  </si>
+  <si>
+    <t>Exity Type Voluntary: The entitiy ask the Central Bank to cancel its license. Article a) of Financial Entities Act</t>
+  </si>
+  <si>
+    <t>Exity Type Partial Sale of some selected assets: Some assets were sold to another firm (Article c in the Financial Entities Act). A weaker form of ET_ADQUIRED. Corresponds to "Exclusión de activos y pasivos" and or "Se revocó su autorización para funcionar de acuerdo con lo previsto en el art. 44, inc. c),"</t>
+  </si>
+  <si>
+    <t>ET_MA</t>
   </si>
 </sst>
 </file>
@@ -759,14 +1112,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1128,56 +1481,63 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A4" dT="2021-02-17T02:06:03.95" personId="{20D3C5A8-94A4-4298-AF66-57B7A6F710B8}" id="{0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}">
+    <text>This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" customWidth="1"/>
-    <col min="3" max="4" width="10.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.07421875" customWidth="1"/>
+    <col min="3" max="4" width="10.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" customWidth="1"/>
+    <col min="6" max="6" width="6.69140625" customWidth="1"/>
+    <col min="7" max="7" width="10.23046875" customWidth="1"/>
+    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>214</v>
@@ -1186,13 +1546,13 @@
         <v>215</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1211,12 +1571,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
-        <f>E2*H2*K2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1232,15 +1588,11 @@
       <c r="E3" s="2">
         <v>38071</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L18" si="0">E3*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1253,12 +1605,8 @@
       <c r="D4" s="1">
         <v>42248</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1277,12 +1625,8 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>36769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1295,12 +1639,8 @@
       <c r="D6" s="1">
         <v>43862</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1313,12 +1653,8 @@
       <c r="D7" s="1">
         <v>38412</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1331,12 +1667,8 @@
       <c r="D8" s="1">
         <v>43862</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1355,12 +1687,8 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>35859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1373,12 +1701,8 @@
       <c r="D10" s="1">
         <v>43862</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1391,12 +1715,8 @@
       <c r="D11" s="1">
         <v>43862</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1409,12 +1729,8 @@
       <c r="D12" s="1">
         <v>43862</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1427,12 +1743,8 @@
       <c r="D13" s="1">
         <v>43862</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1451,15 +1763,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="M14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1472,12 +1780,8 @@
       <c r="D15" s="1">
         <v>43862</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1496,12 +1800,8 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>36097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1514,12 +1814,8 @@
       <c r="D17" s="1">
         <v>43862</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1532,12 +1828,8 @@
       <c r="D18" s="1">
         <v>43862</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1843,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1877,7 @@
         <v>37226</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1601,8 +1893,11 @@
       <c r="E22" s="2">
         <v>37363</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1911,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1925,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1650,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1676,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1735,8 +2030,11 @@
       <c r="E29" s="2">
         <v>35684</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1752,8 +2050,11 @@
       <c r="E30" s="2">
         <v>37397</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1767,7 +2068,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1787,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +2104,11 @@
       <c r="E33" s="2">
         <v>36223</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1818,7 +2122,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1841,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1864,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1887,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1904,7 +2208,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1927,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1941,7 +2245,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1964,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1978,7 +2282,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1992,7 +2296,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2008,11 +2312,14 @@
       <c r="E44" s="2">
         <v>36867</v>
       </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
       <c r="M44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2026,7 +2333,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2040,7 +2347,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2054,7 +2361,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2077,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2093,8 +2400,11 @@
       <c r="E49" s="2">
         <v>37426</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2110,8 +2420,11 @@
       <c r="E50" s="2">
         <v>35558</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2134,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2148,7 +2461,7 @@
         <v>38596</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2168,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2185,7 +2498,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2199,7 +2512,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2215,8 +2528,11 @@
       <c r="E56" s="2">
         <v>37727</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2232,8 +2548,11 @@
       <c r="E57" s="2">
         <v>36188</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2247,7 +2566,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2263,8 +2582,11 @@
       <c r="E59" s="2">
         <v>37357</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2287,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2303,8 +2625,11 @@
       <c r="E61" s="2">
         <v>35481</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2320,8 +2645,11 @@
       <c r="E62" s="2">
         <v>36081</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2335,7 +2663,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2355,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2378,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2394,8 +2722,11 @@
       <c r="E66" s="2">
         <v>37137</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2411,8 +2742,11 @@
       <c r="E67" s="2">
         <v>36126</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2426,7 +2760,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2440,7 +2774,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2456,8 +2790,14 @@
       <c r="E70" s="2">
         <v>36465</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2480,10 +2820,10 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2503,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2520,7 +2860,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2536,8 +2876,11 @@
       <c r="E74" s="2">
         <v>35880</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2557,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2574,7 +2917,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2590,8 +2933,11 @@
       <c r="E77" s="2">
         <v>37395</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2611,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2628,7 +2974,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2644,8 +2990,11 @@
       <c r="E80" s="2">
         <v>37004</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +3008,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2673,7 +3022,7 @@
         <v>39052</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +3036,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2707,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2724,7 +3073,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2738,7 +3087,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2754,8 +3103,11 @@
       <c r="E87" s="2">
         <v>37434</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2778,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2801,10 +3153,10 @@
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2818,7 +3170,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2838,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2852,7 +3204,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2866,7 +3218,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2882,8 +3234,11 @@
       <c r="E94" s="2">
         <v>35971</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2897,7 +3252,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2911,7 +3266,7 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2925,7 +3280,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2939,7 +3294,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2953,7 +3308,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2967,7 +3322,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2981,7 +3336,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2995,7 +3350,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3009,7 +3364,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3023,7 +3378,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3039,8 +3394,11 @@
       <c r="E105" s="2">
         <v>35859</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3060,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3074,7 +3432,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3088,7 +3446,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3102,7 +3460,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3116,7 +3474,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3132,8 +3490,11 @@
       <c r="E111" s="2">
         <v>35776</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3149,8 +3510,11 @@
       <c r="E112" s="2">
         <v>37395</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3164,7 +3528,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3181,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3201,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3221,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3235,7 +3599,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3258,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3272,7 +3636,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3286,7 +3650,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3309,10 +3673,10 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3332,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3346,7 +3710,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3362,8 +3726,11 @@
       <c r="E124" s="2">
         <v>36896</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3383,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3402,8 +3769,11 @@
       <c r="E126" s="2">
         <v>36266</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3423,10 +3793,10 @@
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3440,7 +3810,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3454,7 +3824,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3468,7 +3838,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3482,7 +3852,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3496,7 +3866,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3516,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3533,7 +3903,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3547,7 +3917,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3561,7 +3931,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3575,7 +3945,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3589,7 +3959,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3603,7 +3973,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3617,7 +3987,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3631,7 +4001,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3645,7 +4015,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3659,7 +4029,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3673,7 +4043,7 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3687,7 +4057,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3701,7 +4071,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3715,7 +4085,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3729,7 +4099,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3743,7 +4113,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3759,8 +4129,11 @@
       <c r="E150" s="2">
         <v>35922</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3776,8 +4149,11 @@
       <c r="E151" s="2">
         <v>38030</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3797,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3820,10 +4196,10 @@
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3837,7 +4213,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3851,7 +4227,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3865,7 +4241,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3885,10 +4261,10 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3908,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3925,7 +4301,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3945,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3959,7 +4335,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3973,7 +4349,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3987,7 +4363,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4001,7 +4377,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4015,7 +4391,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4029,7 +4405,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4043,7 +4419,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4063,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4077,7 +4453,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4091,7 +4467,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4105,7 +4481,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4121,8 +4497,11 @@
       <c r="E172" s="2">
         <v>36672</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4136,7 +4515,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4150,7 +4529,7 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4164,7 +4543,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4184,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4198,7 +4577,7 @@
         <v>38412</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4214,8 +4593,11 @@
       <c r="E178" s="2">
         <v>37011</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4235,10 +4617,10 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4252,7 +4634,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4275,10 +4657,10 @@
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4298,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4314,8 +4696,11 @@
       <c r="E183" s="2">
         <v>37210</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4335,10 +4720,10 @@
         <v>1</v>
       </c>
       <c r="M184" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4352,7 +4737,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4368,14 +4753,12 @@
       <c r="E186" s="2">
         <v>35901</v>
       </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M186" xr:uid="{F766B230-6C83-4273-BA2E-06188A6384CC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="312"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M186">
       <sortCondition ref="B1:B186"/>
     </sortState>
@@ -4387,6 +4770,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E00769-3751-4D15-B1B7-797B88611919}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="31.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D4D6D3-7FE6-4C80-A8FC-BC1BB47FAC69}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -4394,39 +4882,39 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>192</v>
       </c>

--- a/data/failures/entities_start_end_dates.xlsx
+++ b/data/failures/entities_start_end_dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf72e6496f26e8d/UWA PhD/bankFailure/data/failures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="11_BC803668C347457380E3C66D8CB5819721C9985F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A84A328-F372-41D8-A6E5-595FA3D1A967}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2421585D-26A0-4D51-9B10-904E02DB4396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,31 +51,7 @@
     This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DC00A26D-135E-4985-B64C-FF3091B0E578}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>emi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the date that any of the event for disappearing an entitiy occur</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{168B1AF7-FF2A-47E3-B5A8-A7F463051780}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{168B1AF7-FF2A-47E3-B5A8-A7F463051780}">
       <text>
         <r>
           <rPr>
@@ -99,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{A7B2B9FB-BCFE-464E-8327-F5A6F4A8BAFE}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{A7B2B9FB-BCFE-464E-8327-F5A6F4A8BAFE}">
       <text>
         <r>
           <rPr>
@@ -123,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{6F58F602-4E18-4A39-90C4-5383259D8F28}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{6F58F602-4E18-4A39-90C4-5383259D8F28}">
       <text>
         <r>
           <rPr>
@@ -147,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{44456A0B-B678-432B-B3CB-454447B6D959}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{44456A0B-B678-432B-B3CB-454447B6D959}">
       <text>
         <r>
           <rPr>
@@ -171,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{B8553458-24EB-4F46-AFDB-7DD7F84F49B4}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{B8553458-24EB-4F46-AFDB-7DD7F84F49B4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -179,7 +155,7 @@
     fOR EXAMPLE, a financial company becomes a bank</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{F7BE579E-7247-42A8-8F0E-4129867C2334}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{F7BE579E-7247-42A8-8F0E-4129867C2334}">
       <text>
         <r>
           <rPr>
@@ -200,6 +176,30 @@
           </rPr>
           <t xml:space="preserve">
 The entitiy ask the Central Bank to cancel its license. Article a) of Financial Entities Act</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{DE4A2671-7224-4452-90DA-9D12587D3A60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>emi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Central Bank assistance (negative value in account 321113)</t>
         </r>
       </text>
     </comment>
@@ -238,7 +238,7 @@
     <author>emi</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -246,7 +246,7 @@
     This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{BFE78514-93AF-4519-BE38-23264E1D83BE}">
+    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{BFE78514-93AF-4519-BE38-23264E1D83BE}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{54607397-ACC6-4E7D-AB2C-D1E28485EEA8}">
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{54607397-ACC6-4E7D-AB2C-D1E28485EEA8}">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{3E70829C-CE17-457C-84CA-2344183B5B95}">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{3E70829C-CE17-457C-84CA-2344183B5B95}">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{AC1D7F39-CD84-4555-B3CB-A8E7AFA38653}">
+    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{AC1D7F39-CD84-4555-B3CB-A8E7AFA38653}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{97A6DFA9-2B28-42A3-B50E-B700C9DBDD12}">
+    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{97A6DFA9-2B28-42A3-B50E-B700C9DBDD12}">
       <text>
         <r>
           <rPr>
@@ -366,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{8EFEA173-4C4D-49D7-8006-CA4469F9CF2D}">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{8EFEA173-4C4D-49D7-8006-CA4469F9CF2D}">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{7C55571B-5245-4DB8-888C-6F634C8AF4A9}">
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{7C55571B-5245-4DB8-888C-6F634C8AF4A9}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="227">
   <si>
     <t>IDent</t>
   </si>
@@ -1091,6 +1091,15 @@
   </si>
   <si>
     <t>ET_MA</t>
+  </si>
+  <si>
+    <t>ET_CBA</t>
+  </si>
+  <si>
+    <t>Assistance from the Central Bank: a negative value in account 321113. I do not consider failures when assistance is asked on 2001m12</t>
+  </si>
+  <si>
+    <t>B6251 Absorbido por Banco Macro SA. Banco de Misiones SA inicia actividad el 4/1/1996. B5936</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1142,9 +1151,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,6 +1160,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,7 +1490,7 @@
   <threadedComment ref="D1" dT="2021-02-17T02:06:03.95" personId="{20D3C5A8-94A4-4298-AF66-57B7A6F710B8}" id="{3AC5D5FA-6256-4BB4-BB45-3745274A3EBA}">
     <text>This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2021-03-29T06:02:37.33" personId="{20D3C5A8-94A4-4298-AF66-57B7A6F710B8}" id="{B8553458-24EB-4F46-AFDB-7DD7F84F49B4}">
+  <threadedComment ref="I1" dT="2021-03-29T06:02:37.33" personId="{20D3C5A8-94A4-4298-AF66-57B7A6F710B8}" id="{B8553458-24EB-4F46-AFDB-7DD7F84F49B4}">
     <text>fOR EXAMPLE, a financial company becomes a bank</text>
   </threadedComment>
 </ThreadedComments>
@@ -1483,7 +1498,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A4" dT="2021-02-17T02:06:03.95" personId="{20D3C5A8-94A4-4298-AF66-57B7A6F710B8}" id="{0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}">
+  <threadedComment ref="A5" dT="2021-02-17T02:06:03.95" personId="{20D3C5A8-94A4-4298-AF66-57B7A6F710B8}" id="{0F9EB1A3-75C0-4C4B-9654-7E0F4C40877D}">
     <text>This endDate is from entidades.dta database. It's approximante and is equal or lower than the true desappartiion date with a maximum of 3 months. Note that this is the date a bank disappears, it does not imply it failed but it could have been merged</text>
   </threadedComment>
 </ThreadedComments>
@@ -1493,3269 +1508,4422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="6.07421875" customWidth="1"/>
-    <col min="3" max="4" width="10.07421875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.61328125" customWidth="1"/>
-    <col min="6" max="6" width="6.69140625" customWidth="1"/>
-    <col min="7" max="7" width="10.23046875" customWidth="1"/>
-    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D2" s="6">
         <v>35977</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>36008</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D3" s="6">
         <v>37956</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
         <v>38071</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D4" s="6">
         <v>42248</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D5" s="6">
         <v>36678</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>36769</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D7" s="6">
         <v>38412</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C8" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D9" s="6">
         <v>35765</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>35859</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>35490</v>
       </c>
-      <c r="D10" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D10" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>37104</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C11" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C12" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>17</v>
       </c>
-      <c r="C13" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C13" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D14" s="6">
         <v>43525</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <v>43616</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>35431</v>
       </c>
-      <c r="D15" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D15" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
-      <c r="C16" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D16" s="6">
         <v>36039</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>36097</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>27</v>
       </c>
-      <c r="C17" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C17" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>29</v>
       </c>
-      <c r="C18" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C18" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
-      <c r="C19" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C19" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>39</v>
       </c>
-      <c r="C20" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D20" s="6">
         <v>36312</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>36373</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>42</v>
       </c>
-      <c r="C21" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D21" s="6">
         <v>37226</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>43</v>
       </c>
-      <c r="C22" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D22" s="6">
         <v>37408</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>37363</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>35490</v>
       </c>
-      <c r="D23" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D23" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>45</v>
       </c>
-      <c r="C24" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C24" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>46</v>
       </c>
-      <c r="C25" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D25" s="6">
         <v>42248</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>42356</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>49</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>35400</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="6">
         <v>35977</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>35807</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
+        <v>35807</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>50</v>
       </c>
-      <c r="C27" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D27" s="6">
         <v>36678</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <v>36707</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>54</v>
       </c>
-      <c r="C28" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D28" s="6">
         <v>36404</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
         <v>36434</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>56</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>35490</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <v>35674</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>35684</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>59</v>
       </c>
-      <c r="C30" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D30" s="6">
         <v>37408</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>37397</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>60</v>
       </c>
-      <c r="C31" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D31" s="6">
         <v>43709</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>61</v>
       </c>
-      <c r="C32" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D32" s="6">
         <v>35855</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
         <v>35916</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>62</v>
       </c>
-      <c r="C33" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D33" s="6">
         <v>36130</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
         <v>36223</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>65</v>
       </c>
-      <c r="C34" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C34" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D34" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>66</v>
       </c>
-      <c r="C35" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D35" s="6">
         <v>35855</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
         <v>35986</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6">
+        <v>35986</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>67</v>
       </c>
-      <c r="C36" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D36" s="6">
         <v>37865</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
         <v>37972</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>71</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>35400</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>36220</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <v>35977</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>35977</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>72</v>
       </c>
-      <c r="C38" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C38" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D38" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>75</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="6">
         <v>35490</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="6">
         <v>35855</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="6">
         <v>35916</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>35916</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>79</v>
       </c>
-      <c r="C40" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D40" s="6">
         <v>40422</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>81</v>
       </c>
-      <c r="C41" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D41" s="6">
         <v>36220</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
         <v>35886</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G41" s="6">
+        <v>35886</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>83</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="6">
         <v>35490</v>
       </c>
-      <c r="D42" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D42" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
+        <v>37196</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>86</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <v>35431</v>
       </c>
-      <c r="D43" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D43" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>92</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="6">
         <v>35490</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="6">
         <v>36861</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
         <v>36867</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="M44" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>93</v>
       </c>
-      <c r="C45" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C45" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D45" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>94</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="6">
         <v>35370</v>
       </c>
-      <c r="D46" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D46" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>97</v>
       </c>
-      <c r="C47" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C47" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D47" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>107</v>
       </c>
-      <c r="C48" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D48" s="6">
         <v>35765</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
         <v>35885</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G48" s="6">
+        <v>35885</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>113</v>
       </c>
-      <c r="C49" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D49" s="6">
         <v>37408</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
         <v>37426</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>128</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="6">
         <v>35490</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="6">
         <v>35490</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
         <v>35558</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>133</v>
       </c>
-      <c r="C51" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C51" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D51" s="6">
         <v>35855</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
         <v>35886</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G51" s="6">
+        <v>35886</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>137</v>
       </c>
-      <c r="C52" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D52" s="6">
         <v>38596</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>141</v>
       </c>
-      <c r="C53" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D53" s="6">
         <v>36586</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6">
         <v>36678</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
       <c r="M53" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>143</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="6">
         <v>43344</v>
       </c>
-      <c r="D54" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D54" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>147</v>
       </c>
-      <c r="C55" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D55" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C55" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>148</v>
       </c>
-      <c r="C56" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D56" s="6">
         <v>37622</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
         <v>37727</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>149</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="6">
         <v>35490</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="6">
         <v>36130</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
         <v>36188</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>150</v>
       </c>
-      <c r="C58" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C58" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D58" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>153</v>
       </c>
-      <c r="C59" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D59" s="6">
         <v>37408</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
         <v>37357</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>156</v>
       </c>
-      <c r="C60" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D60" s="6">
         <v>35582</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
         <v>35674</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G60" s="6">
+        <v>35674</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>161</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>35490</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="6">
         <v>35490</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6">
         <v>35481</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>162</v>
       </c>
-      <c r="C62" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D62" s="6">
         <v>36039</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6">
         <v>36081</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>165</v>
       </c>
-      <c r="C63" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C63" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D63" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>167</v>
       </c>
-      <c r="C64" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="C64" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D64" s="6">
         <v>36404</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6">
         <v>36404</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>175</v>
       </c>
-      <c r="C65" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="C65" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D65" s="6">
         <v>35855</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
         <v>35916</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G65" s="6">
+        <v>35916</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>178</v>
       </c>
-      <c r="C66" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="C66" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D66" s="6">
         <v>37135</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6">
         <v>37137</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>179</v>
       </c>
-      <c r="C67" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="C67" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D67" s="6">
         <v>36039</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6">
         <v>36126</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>191</v>
       </c>
-      <c r="C68" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C68" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>198</v>
       </c>
-      <c r="C69" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C69" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D69" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>229</v>
       </c>
-      <c r="C70" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C70" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D70" s="6">
         <v>36404</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
         <v>36465</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6">
+        <v>36465</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>231</v>
       </c>
-      <c r="C71" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D71" s="6">
         <v>36404</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
         <v>36250</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6">
+        <v>36250</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
       <c r="M71" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>236</v>
       </c>
-      <c r="C72" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="C72" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D72" s="6">
         <v>37226</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6">
         <v>37301</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
       <c r="M72" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>247</v>
       </c>
-      <c r="C73" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D73" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C73" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D73" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>249</v>
       </c>
-      <c r="C74" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C74" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D74" s="6">
         <v>35977</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6">
         <v>35880</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>253</v>
       </c>
-      <c r="C75" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D75" s="6">
         <v>36130</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6">
         <v>36188</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
       <c r="M75" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>254</v>
       </c>
-      <c r="C76" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D76" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C76" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D76" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>255</v>
       </c>
-      <c r="C77" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D77" s="6">
         <v>37408</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6">
         <v>37395</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>256</v>
       </c>
-      <c r="C78" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="C78" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D78" s="6">
         <v>36130</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6">
         <v>36192</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
       <c r="M78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>259</v>
       </c>
-      <c r="C79" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D79" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C79" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D79" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>260</v>
       </c>
-      <c r="C80" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D80" s="6">
         <v>37591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
         <v>37004</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>262</v>
       </c>
-      <c r="C81" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D81" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C81" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D81" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>265</v>
       </c>
-      <c r="C82" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D82" s="6">
         <v>39052</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>266</v>
       </c>
-      <c r="C83" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D83" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C83" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D83" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>267</v>
       </c>
-      <c r="C84" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="C84" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D84" s="6">
         <v>36770</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6">
         <v>36678</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
       <c r="M84" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>268</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="6">
         <v>35370</v>
       </c>
-      <c r="D85" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D85" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>269</v>
       </c>
-      <c r="C86" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D86" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C86" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D86" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>271</v>
       </c>
-      <c r="C87" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D87" s="6">
         <v>37408</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6">
         <v>37434</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>273</v>
       </c>
-      <c r="C88" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D88" s="6">
         <v>35977</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
         <v>36010</v>
       </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
+      <c r="G88" s="6">
+        <v>36010</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
       <c r="M88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>275</v>
       </c>
-      <c r="C89" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D89" s="2">
+      <c r="C89" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D89" s="6">
         <v>36495</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6">
         <v>36615</v>
       </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
       <c r="M89" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>277</v>
       </c>
-      <c r="C90" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D90" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C90" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D90" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>280</v>
       </c>
-      <c r="C91" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D91" s="2">
+      <c r="C91" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D91" s="6">
         <v>36586</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6">
         <v>36130</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>281</v>
       </c>
-      <c r="C92" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D92" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C92" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D92" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>285</v>
       </c>
-      <c r="C93" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D93" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C93" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D93" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>287</v>
       </c>
-      <c r="C94" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="C94" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D94" s="6">
         <v>35855</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6">
         <v>35971</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>293</v>
       </c>
-      <c r="C95" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="C95" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D95" s="6">
         <v>39692</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>294</v>
       </c>
-      <c r="C96" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D96" s="6">
         <v>39142</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>295</v>
       </c>
-      <c r="C97" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D97" s="6">
         <v>42156</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>297</v>
       </c>
-      <c r="C98" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="C98" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D98" s="6">
         <v>39234</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>299</v>
       </c>
-      <c r="C99" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D99" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C99" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D99" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>300</v>
       </c>
-      <c r="C100" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D100" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C100" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D100" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>301</v>
       </c>
-      <c r="C101" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D101" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C101" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D101" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>303</v>
       </c>
-      <c r="C102" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D102" s="6">
         <v>43070</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>305</v>
       </c>
-      <c r="C103" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D103" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C103" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D103" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>306</v>
       </c>
-      <c r="C104" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D104" s="6">
         <v>41609</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6">
+        <v>37196</v>
+      </c>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>307</v>
       </c>
-      <c r="C105" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D105" s="2">
+      <c r="C105" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D105" s="6">
         <v>35977</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6">
         <v>35859</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>308</v>
       </c>
-      <c r="C106" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D106" s="2">
+      <c r="C106" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D106" s="6">
         <v>36586</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6">
         <v>36654</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>309</v>
       </c>
-      <c r="C107" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D107" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C107" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D107" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6">
+        <v>37165</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>310</v>
       </c>
-      <c r="C108" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D108" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C108" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D108" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>311</v>
       </c>
-      <c r="C109" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D109" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C109" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D109" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>312</v>
       </c>
-      <c r="C110" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D110" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C110" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D110" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>313</v>
       </c>
-      <c r="C111" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D111" s="2">
+      <c r="C111" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D111" s="6">
         <v>35674</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6">
         <v>35776</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>314</v>
       </c>
-      <c r="C112" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D112" s="6">
         <v>37408</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6">
         <v>37395</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>315</v>
       </c>
-      <c r="C113" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D113" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C113" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D113" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>316</v>
       </c>
-      <c r="C114" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D114" s="2">
+      <c r="C114" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D114" s="6">
         <v>35674</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
+        <v>35765</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>317</v>
       </c>
-      <c r="C115" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C115" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D115" s="6">
         <v>37561</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6">
         <v>37773</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>318</v>
       </c>
-      <c r="C116" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D116" s="2">
+      <c r="C116" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D116" s="6">
         <v>36404</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6">
         <v>36465</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>319</v>
       </c>
-      <c r="C117" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D117" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C117" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D117" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>320</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="6">
         <v>35370</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="6">
         <v>36130</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
         <v>36158</v>
       </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G118" s="6">
+        <v>36158</v>
+      </c>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>321</v>
       </c>
-      <c r="C119" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D119" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C119" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D119" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>322</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="6">
         <v>35582</v>
       </c>
-      <c r="D120" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D120" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>323</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="6">
         <v>35674</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="6">
         <v>36404</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
         <v>36486</v>
       </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
+      <c r="G121" s="6">
+        <v>36486</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
       <c r="M121" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>324</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="6">
         <v>35855</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="6">
         <v>36678</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6">
         <v>36739</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>325</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="6">
         <v>35855</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="6">
         <v>42979</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>326</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="6">
         <v>35977</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="6">
         <v>36951</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6">
         <v>36896</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6">
+        <v>36708</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>327</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="6">
         <v>36039</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="6">
         <v>37226</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6">
         <v>37322</v>
       </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
       <c r="M125" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>328</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="6">
         <v>35977</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="6">
         <v>36312</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6">
         <v>36266</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>329</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="6">
         <v>35977</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="6">
         <v>37226</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6">
         <v>37434</v>
       </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
       <c r="M127" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>330</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="6">
         <v>36220</v>
       </c>
-      <c r="D128" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D128" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>331</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="6">
         <v>36130</v>
       </c>
-      <c r="D129" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D129" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>332</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="6">
         <v>36130</v>
       </c>
-      <c r="D130" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D130" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>335</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="6">
         <v>36495</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="6">
         <v>40238</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>336</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="6">
         <v>36586</v>
       </c>
-      <c r="D132" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D132" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>337</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="6">
         <v>36586</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="6">
         <v>38047</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6">
         <v>38148</v>
       </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
       <c r="M133" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>338</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="6">
         <v>36586</v>
       </c>
-      <c r="D134" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D134" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>339</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="6">
         <v>36678</v>
       </c>
-      <c r="D135" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D135" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>340</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="6">
         <v>36770</v>
       </c>
-      <c r="D136" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D136" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>341</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="6">
         <v>39508</v>
       </c>
-      <c r="D137" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D137" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>384</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="6">
         <v>43252</v>
       </c>
-      <c r="D138" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D138" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>386</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="6">
         <v>37257</v>
       </c>
-      <c r="D139" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D139" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>387</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="6">
         <v>37257</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="6">
         <v>39326</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>388</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="6">
         <v>37257</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="6">
         <v>39965</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>389</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="6">
         <v>37561</v>
       </c>
-      <c r="D142" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D142" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>426</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="6">
         <v>41244</v>
       </c>
-      <c r="D143" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D143" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>430</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="6">
         <v>38869</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="6">
         <v>39142</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>431</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="6">
         <v>41609</v>
       </c>
-      <c r="D145" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D145" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>432</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="6">
         <v>42522</v>
       </c>
-      <c r="D146" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D146" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>435</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="6">
         <v>43709</v>
       </c>
-      <c r="D147" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D147" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>448</v>
       </c>
-      <c r="C148" s="2">
-        <v>43862</v>
-      </c>
-      <c r="D148" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C148" s="6">
+        <v>43862</v>
+      </c>
+      <c r="D148" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>515</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="6">
         <v>43800</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="6">
         <v>43831</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>44001</v>
       </c>
-      <c r="C150" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D150" s="2">
+      <c r="C150" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D150" s="6">
         <v>35855</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6">
         <v>35922</v>
       </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>44019</v>
       </c>
-      <c r="C151" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D151" s="1">
+      <c r="C151" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D151" s="6">
         <v>37956</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="6"/>
+      <c r="F151" s="6">
         <v>38030</v>
       </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>44032</v>
       </c>
-      <c r="C152" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D152" s="2">
+      <c r="C152" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D152" s="6">
         <v>36404</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6">
         <v>36343</v>
       </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
       <c r="M152" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>44034</v>
       </c>
-      <c r="C153" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D153" s="1">
+      <c r="C153" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D153" s="6">
         <v>38047</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6">
         <v>38155</v>
       </c>
-      <c r="K153">
-        <v>1</v>
-      </c>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
       <c r="M153" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>44059</v>
       </c>
-      <c r="C154" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D154" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C154" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D154" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>44068</v>
       </c>
-      <c r="C155" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D155" s="1">
+      <c r="C155" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D155" s="6">
         <v>42430</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>44077</v>
       </c>
-      <c r="C156" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D156" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C156" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D156" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>44086</v>
       </c>
-      <c r="C157" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D157" s="1">
+      <c r="C157" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D157" s="6">
         <v>37377</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6">
         <v>37601</v>
       </c>
-      <c r="J157">
-        <v>1</v>
-      </c>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
       <c r="M157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>44087</v>
       </c>
-      <c r="C158" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D158" s="2">
+      <c r="C158" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D158" s="6">
         <v>36130</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6">
         <v>36181</v>
       </c>
-      <c r="K158">
-        <v>1</v>
-      </c>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
       <c r="M158" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>44088</v>
       </c>
-      <c r="C159" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D159" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C159" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D159" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>44089</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="6">
         <v>35490</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="6">
         <v>35490</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6">
         <v>35569</v>
       </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>44090</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="6">
         <v>36404</v>
       </c>
-      <c r="D161" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D161" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>44091</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="6">
         <v>36404</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="6">
         <v>40148</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>44092</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="6">
         <v>36586</v>
       </c>
-      <c r="D163" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D163" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>44093</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="6">
         <v>36586</v>
       </c>
-      <c r="D164" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D164" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>44094</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="6">
         <v>36586</v>
       </c>
-      <c r="D165" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D165" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>44095</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="6">
         <v>36678</v>
       </c>
-      <c r="D166" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D166" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>44096</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="6">
         <v>36678</v>
       </c>
-      <c r="D167" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D167" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>44097</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="6">
         <v>37226</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="6">
         <v>37956</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6">
         <v>38034</v>
       </c>
-      <c r="H168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>44098</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="6">
         <v>37257</v>
       </c>
-      <c r="D169" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D169" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>44099</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="6">
         <v>38412</v>
       </c>
-      <c r="D170" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D170" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>44100</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="6">
         <v>41518</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="6">
         <v>43800</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>45008</v>
       </c>
-      <c r="C172" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D172" s="2">
+      <c r="C172" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D172" s="6">
         <v>36678</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6">
         <v>36672</v>
       </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>45056</v>
       </c>
-      <c r="C173" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D173" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C173" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D173" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>45065</v>
       </c>
-      <c r="C174" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D174" s="1">
+      <c r="C174" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D174" s="6">
         <v>39417</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>45072</v>
       </c>
-      <c r="C175" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D175" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C175" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D175" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>45085</v>
       </c>
-      <c r="C176" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D176" s="2">
+      <c r="C176" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D176" s="6">
         <v>36586</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6">
         <v>36648</v>
       </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>45118</v>
       </c>
-      <c r="C177" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D177" s="1">
+      <c r="C177" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D177" s="6">
         <v>38412</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>64025</v>
       </c>
-      <c r="C178" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D178" s="2">
+      <c r="C178" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D178" s="6">
         <v>36951</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6">
         <v>37011</v>
       </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>64029</v>
       </c>
-      <c r="C179" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D179" s="2">
+      <c r="C179" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D179" s="6">
         <v>37135</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6">
         <v>37168</v>
       </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
       <c r="M179" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>64085</v>
       </c>
-      <c r="C180" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D180" s="1">
+      <c r="C180" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D180" s="6">
         <v>41518</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>64119</v>
       </c>
-      <c r="C181" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D181" s="2">
+      <c r="C181" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D181" s="6">
         <v>36495</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6">
         <v>36584</v>
       </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6">
+        <v>36584</v>
+      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
       <c r="M181" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>64123</v>
       </c>
-      <c r="C182" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D182" s="2">
+      <c r="C182" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D182" s="6">
         <v>37135</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6">
         <v>37167</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>64124</v>
       </c>
-      <c r="C183" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D183" s="2">
+      <c r="C183" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D183" s="6">
         <v>37226</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6">
         <v>37210</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>65201</v>
       </c>
-      <c r="C184" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D184" s="2">
+      <c r="C184" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D184" s="6">
         <v>36220</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6">
         <v>36328</v>
       </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
       <c r="M184" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>65203</v>
       </c>
-      <c r="C185" s="2">
-        <v>35521</v>
-      </c>
-      <c r="D185" s="1">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C185" s="6">
+        <v>35521</v>
+      </c>
+      <c r="D185" s="6">
+        <v>43862</v>
+      </c>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>94026</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="6">
         <v>35490</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="6">
         <v>35855</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6">
         <v>35901</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M186" xr:uid="{F766B230-6C83-4273-BA2E-06188A6384CC}">
@@ -4764,107 +5932,115 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E00769-3751-4D15-B1B7-797B88611919}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.53515625" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4882,39 +6058,39 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>192</v>
       </c>
